--- a/Book_Exercise_Files/Input_Activity_Ratio_Samples.xlsx
+++ b/Book_Exercise_Files/Input_Activity_Ratio_Samples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/940a138d5667ee1b/Documentos/UVic/Courses/UVIC-2023/Spring-2023/IESVic-Coop/Storage-Master/Wiki/IESVic_OSeMOSYS_Book/Book_Exercise_Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/940a138d5667ee1b/Documentos/UVic/Courses/UVIC-2023/Spring-2023/IESVic-Coop/The_OSeMOSYS_EBook_by_IESVic/Book_Exercise_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="11_F25DC773A252ABDACC104806A19B57945ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7841AFE6-862D-40F5-BD84-F196473EAFD7}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="11_F25DC773A252ABDACC104806A19B57945ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDC63933-2472-4624-B5FB-873449434551}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAR_Sample1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="15">
   <si>
     <t>Included</t>
   </si>
@@ -72,6 +72,9 @@
   <si>
     <t>tCOMP</t>
   </si>
+  <si>
+    <t>tIND_FURN</t>
+  </si>
 </sst>
 </file>
 
@@ -113,141 +116,241 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -262,13 +365,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A80DF31E-697E-40A9-8CFC-62FD9A989BEF}" name="Table134" displayName="Table134" ref="A1:G4" totalsRowShown="0">
-  <autoFilter ref="A1:G4" xr:uid="{A80DF31E-697E-40A9-8CFC-62FD9A989BEF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A80DF31E-697E-40A9-8CFC-62FD9A989BEF}" name="Table134" displayName="Table134" ref="A1:G5" totalsRowShown="0">
+  <autoFilter ref="A1:G5" xr:uid="{A80DF31E-697E-40A9-8CFC-62FD9A989BEF}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{BC41D878-C291-426B-971C-45EBB875545A}" name="Included"/>
     <tableColumn id="2" xr3:uid="{E816D52F-0716-43F0-A2DE-09B510D45DB7}" name="Region"/>
@@ -276,15 +375,15 @@
     <tableColumn id="4" xr3:uid="{863C4B4E-F980-4B12-A380-93FF37FB7A77}" name="Fuel"/>
     <tableColumn id="5" xr3:uid="{13967087-BF7C-419B-9CCE-9D58627A693C}" name="Mode_Of_Operation"/>
     <tableColumn id="6" xr3:uid="{A76E3E43-A0B1-4423-B006-FF7B5ED34FA3}" name="Year"/>
-    <tableColumn id="7" xr3:uid="{154F0272-C6A6-4B8E-B0C5-2D3FFBB5DF73}" name="Input_Activity_Ratio" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{154F0272-C6A6-4B8E-B0C5-2D3FFBB5DF73}" name="Input_Activity_Ratio" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9899C401-047C-4396-B750-C92922222BED}" name="Table13" displayName="Table13" ref="A1:G4" totalsRowShown="0">
-  <autoFilter ref="A1:G4" xr:uid="{9899C401-047C-4396-B750-C92922222BED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9899C401-047C-4396-B750-C92922222BED}" name="Table13" displayName="Table13" ref="A1:G5" totalsRowShown="0">
+  <autoFilter ref="A1:G5" xr:uid="{9899C401-047C-4396-B750-C92922222BED}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{E07B45C0-0AE8-415D-B426-99A160A923F9}" name="Included"/>
     <tableColumn id="2" xr3:uid="{A6724A60-2DE4-4C73-8C2A-F9F8354699DB}" name="Region"/>
@@ -292,15 +391,15 @@
     <tableColumn id="4" xr3:uid="{B8F7E367-2B23-4B27-81A4-20D4CCFB03B2}" name="Fuel"/>
     <tableColumn id="5" xr3:uid="{80BDA58B-56B9-4A48-98A1-7EB2D142A6B5}" name="Mode_Of_Operation"/>
     <tableColumn id="6" xr3:uid="{B307E181-D872-434F-A7BE-A8306FC27885}" name="Year"/>
-    <tableColumn id="7" xr3:uid="{511C01DE-13B0-44AC-9573-F90FDC17687D}" name="Input_Activity_Ratio" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{511C01DE-13B0-44AC-9573-F90FDC17687D}" name="Input_Activity_Ratio" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{72C3D987-8C59-481F-95B9-46A7040A0A26}" name="Table135" displayName="Table135" ref="A1:G4" totalsRowShown="0">
-  <autoFilter ref="A1:G4" xr:uid="{72C3D987-8C59-481F-95B9-46A7040A0A26}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{72C3D987-8C59-481F-95B9-46A7040A0A26}" name="Table135" displayName="Table135" ref="A1:G5" totalsRowShown="0">
+  <autoFilter ref="A1:G5" xr:uid="{72C3D987-8C59-481F-95B9-46A7040A0A26}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{72242E8C-5F96-4822-9C38-B890F0BD9B11}" name="Included"/>
     <tableColumn id="2" xr3:uid="{1818F2B2-26DB-4E0E-BA74-7DE107E5D031}" name="Region"/>
@@ -308,15 +407,15 @@
     <tableColumn id="4" xr3:uid="{9C5CD5EE-E422-4988-B09E-64A21D94BFA8}" name="Fuel"/>
     <tableColumn id="5" xr3:uid="{603E3BEF-CA5C-4CAA-8D0C-552300F20DC9}" name="Mode_Of_Operation"/>
     <tableColumn id="6" xr3:uid="{58496CF0-70E5-4FB7-A3F4-E82B5838B500}" name="Year"/>
-    <tableColumn id="7" xr3:uid="{D4403ED1-522B-4B2D-BB56-E7A2DC9A95F6}" name="Input_Activity_Ratio" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{D4403ED1-522B-4B2D-BB56-E7A2DC9A95F6}" name="Input_Activity_Ratio" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{747C5AF9-AA1B-44A1-98D3-AB500AF51061}" name="Table1356" displayName="Table1356" ref="A1:G4" totalsRowShown="0">
-  <autoFilter ref="A1:G4" xr:uid="{747C5AF9-AA1B-44A1-98D3-AB500AF51061}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{747C5AF9-AA1B-44A1-98D3-AB500AF51061}" name="Table1356" displayName="Table1356" ref="A1:G5" totalsRowShown="0">
+  <autoFilter ref="A1:G5" xr:uid="{747C5AF9-AA1B-44A1-98D3-AB500AF51061}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{A4A99D44-C415-4A09-84EA-36790D88D3DB}" name="Included"/>
     <tableColumn id="2" xr3:uid="{09655E65-4232-4EFC-8DED-4A9BBA51AB81}" name="Region"/>
@@ -324,15 +423,15 @@
     <tableColumn id="4" xr3:uid="{B8A8313F-C3B1-4CF8-8A35-396E9FAEF34F}" name="Fuel"/>
     <tableColumn id="5" xr3:uid="{4CC4BFE3-566A-42F4-940D-A4B7CC16BBE8}" name="Mode_Of_Operation"/>
     <tableColumn id="6" xr3:uid="{43FE803F-2822-4721-B0D1-B39F3FBEFF32}" name="Year"/>
-    <tableColumn id="7" xr3:uid="{6CA48EA3-87A5-4AC1-A655-E4F4FEF8349A}" name="Input_Activity_Ratio" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{6CA48EA3-87A5-4AC1-A655-E4F4FEF8349A}" name="Input_Activity_Ratio" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B35536CA-05B4-4F1F-909B-49FC9248CE62}" name="Table13567" displayName="Table13567" ref="A1:G4" totalsRowShown="0">
-  <autoFilter ref="A1:G4" xr:uid="{B35536CA-05B4-4F1F-909B-49FC9248CE62}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B35536CA-05B4-4F1F-909B-49FC9248CE62}" name="Table13567" displayName="Table13567" ref="A1:G5" totalsRowShown="0">
+  <autoFilter ref="A1:G5" xr:uid="{B35536CA-05B4-4F1F-909B-49FC9248CE62}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{475EA5AA-7490-4EA3-8DB7-45B95A0A89E0}" name="Included"/>
     <tableColumn id="2" xr3:uid="{68F47892-89B4-4959-8939-C0F7C0AD0BCE}" name="Region"/>
@@ -340,7 +439,7 @@
     <tableColumn id="4" xr3:uid="{D4BC96E3-6974-42C6-94B2-B6844A01681B}" name="Fuel"/>
     <tableColumn id="5" xr3:uid="{EB310671-FC96-4B5E-BC69-6A62208E1999}" name="Mode_Of_Operation"/>
     <tableColumn id="6" xr3:uid="{AB79AD86-F087-4A1B-BAB6-6A1B3D9B9B90}" name="Year"/>
-    <tableColumn id="7" xr3:uid="{9241F9D7-3BE8-474E-994D-843459B30B07}" name="Input_Activity_Ratio" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{9241F9D7-3BE8-474E-994D-843459B30B07}" name="Input_Activity_Ratio" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -609,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,10 +776,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -700,7 +799,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -716,7 +815,27 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G5" s="1"/>
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2030</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G6" s="1"/>
@@ -736,21 +855,32 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G11" s="1"/>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A5:A11">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+  <conditionalFormatting sqref="A2:A5">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A4">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+  <conditionalFormatting sqref="A6:A12">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -762,10 +892,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CAA52C-198F-4160-BEEE-0F7AC5F5BFAA}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -827,10 +957,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -839,7 +969,7 @@
         <v>2030</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -850,7 +980,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -865,13 +995,44 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2030</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A4">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+  <conditionalFormatting sqref="A2:A5">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+      <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -883,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C91840-2F7F-417F-BA28-C7158181EB84}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,10 +1106,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -968,7 +1129,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -983,13 +1144,44 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2030</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A4">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+  <conditionalFormatting sqref="A2:A5">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1001,13 +1193,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692CC3C6-36EA-4490-8965-9A57B57B0E32}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1063,10 +1258,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1086,7 +1281,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1098,16 +1293,47 @@
         <v>2030</v>
       </c>
       <c r="G4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2030</v>
+      </c>
+      <c r="G5" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A4">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="A2:A5">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1119,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B8B423-A011-48A6-8E0E-0776DE02C3B7}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1181,10 +1407,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1193,7 +1419,7 @@
         <v>2030</v>
       </c>
       <c r="G3" s="1">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1204,7 +1430,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1216,16 +1442,47 @@
         <v>2030</v>
       </c>
       <c r="G4" s="1">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2030</v>
+      </c>
+      <c r="G5" s="1">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A4">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="A2:A5">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
